--- a/MarketingLead001.xlsx
+++ b/MarketingLead001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\Irfan123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510222D4-3762-4857-BE22-A32957851A79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EDA4B9-47FC-4A39-9354-E6395D079041}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1575" windowWidth="20490" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
